--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s2_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.8168650139535</v>
+        <v>614.3672915212159</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4279999732971191</v>
+        <v>0.5870001316070557</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.63686501310217</v>
+        <v>58.36729152121585</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>433.9000000008513</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.28</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31.7686718180601</v>
+        <v>30.66483080554334</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.86770052517329</v>
+        <v>3.132299474826731</v>
       </c>
     </row>
     <row r="6">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>88.61200000002832</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>103.2440000000068</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>132.3550000000268</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>107.7910000000231</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>47.53900000000444</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>107.7910000000524</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>132.3550000000268</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>103.2440000000061</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.791000000052222</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="3">
@@ -1164,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>32.35500000002685</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="4">
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>3.244000000006054</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12.028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1280,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1318,23 +1318,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
